--- a/Paper_Code/AR_Cov/Results/AR_Full_Results_d1000_n900_terr.xlsx
+++ b/Paper_Code/AR_Cov/Results/AR_Full_Results_d1000_n900_terr.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,22 +465,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -497,16 +512,25 @@
         <v>0.1947444287359386</v>
       </c>
       <c r="D2" t="n">
+        <v>0.006158359564339115</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.876</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.3295815528818322</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.01042228381881821</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.8386401692869079</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.3724577090999989</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01177814692844419</v>
       </c>
     </row>
     <row r="3">
@@ -522,16 +546,25 @@
         <v>0.1924057021636785</v>
       </c>
       <c r="D3" t="n">
+        <v>0.006084402536412114</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.878</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.3272858078194043</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.01034968598557463</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.8389881231701425</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.3728309029745043</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0117899483549668</v>
       </c>
     </row>
     <row r="4">
@@ -547,16 +580,25 @@
         <v>0.196788208083181</v>
       </c>
       <c r="D4" t="n">
+        <v>0.006222989542060099</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.877</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.3284372086107175</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.01038609647557734</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.8196010460678199</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.3650803550914441</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01154485451072013</v>
       </c>
     </row>
     <row r="5">
@@ -572,16 +614,25 @@
         <v>0.1941529565874389</v>
       </c>
       <c r="D5" t="n">
+        <v>0.006139655572720993</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.873</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.3329729718760968</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.01052952990403655</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.8211769011744816</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.3537258176591845</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01118579251008433</v>
       </c>
     </row>
     <row r="6">
@@ -597,16 +648,25 @@
         <v>0.1746226560630945</v>
       </c>
       <c r="D6" t="n">
+        <v>0.005522053242275901</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.902</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.2973146481423342</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.009401914698613255</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.7499961241397871</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.3973793115519993</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.01256623719533978</v>
       </c>
     </row>
     <row r="7">
@@ -622,16 +682,25 @@
         <v>1.742737045843359</v>
       </c>
       <c r="D7" t="n">
+        <v>0.05511018427618291</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.9370000000000001</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2429629601400181</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.007683163410991596</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.906791183692211</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>2.797516162184971</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.08846522863637515</v>
       </c>
     </row>
     <row r="8">
@@ -647,16 +716,25 @@
         <v>4.301605829003309</v>
       </c>
       <c r="D8" t="n">
+        <v>0.1360287201590725</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.93</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2551470164434614</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.008068457101577723</v>
+      </c>
+      <c r="H8" t="n">
         <v>2.151259631669688</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>7.096466875529465</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.2244099866661173</v>
       </c>
     </row>
     <row r="9">
@@ -672,16 +750,25 @@
         <v>1.911348239831792</v>
       </c>
       <c r="D9" t="n">
+        <v>0.0604421383962223</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.944</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2299217258111986</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007270763371201129</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.283607266809273</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>7.108163902491984</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2247798791366569</v>
       </c>
     </row>
     <row r="10">
@@ -697,16 +784,25 @@
         <v>3.934143546015243</v>
       </c>
       <c r="D10" t="n">
+        <v>0.1244085424745961</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.9389999999999999</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2393303156727121</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.007568289106528635</v>
+      </c>
+      <c r="H10" t="n">
         <v>2.155652654178056</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>4.016860813849809</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.1270242921564303</v>
       </c>
     </row>
     <row r="11">
@@ -722,16 +818,25 @@
         <v>7.974810566265756</v>
       </c>
       <c r="D11" t="n">
+        <v>0.2521856529777694</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.956</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2050950998927083</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006485676526007137</v>
+      </c>
+      <c r="H11" t="n">
         <v>3.056290239166144</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>12.25715292196683</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.387605208624033</v>
       </c>
     </row>
     <row r="12">
@@ -747,16 +852,25 @@
         <v>0.2450627228147388</v>
       </c>
       <c r="D12" t="n">
+        <v>0.007749563736970842</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.957</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2028570925553257</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.006414904519944159</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.089702200612585</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.6639370049109176</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.02099553158388898</v>
       </c>
     </row>
     <row r="13">
@@ -772,16 +886,25 @@
         <v>0.2409678905437359</v>
       </c>
       <c r="D13" t="n">
+        <v>0.007620073770843555</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.949</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2199977272609878</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.006956938982052379</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.083934359672899</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.6547481188420273</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.02070495349251414</v>
       </c>
     </row>
     <row r="14">
@@ -797,16 +920,25 @@
         <v>0.2565573666463387</v>
       </c>
       <c r="D14" t="n">
+        <v>0.008113056290973451</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.9389999999999999</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.239330315672712</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007568289106528635</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.068218921300677</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.6602740926429659</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.02087970012752798</v>
       </c>
     </row>
     <row r="15">
@@ -822,16 +954,25 @@
         <v>0.2439714149291466</v>
       </c>
       <c r="D15" t="n">
+        <v>0.008113056290973451</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9330000000000001</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2500219990320852</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007906389820898032</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.060108190764933</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.6436386204542326</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.02035364030684014</v>
       </c>
     </row>
     <row r="16">
@@ -847,16 +988,25 @@
         <v>0.2016884534435525</v>
       </c>
       <c r="D16" t="n">
+        <v>0.006377948906384562</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.949</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2199977272609878</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.006956938982052379</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.9178012038315404</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.4789451488399235</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01514557544622509</v>
       </c>
     </row>
     <row r="17">
@@ -872,16 +1022,25 @@
         <v>0.3072034964787353</v>
       </c>
       <c r="D17" t="n">
+        <v>0.009714627540403201</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.897</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3039588787977742</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.009612023720320296</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.9157246136910854</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.6395950334866221</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.02022577085949391</v>
       </c>
     </row>
     <row r="18">
@@ -897,16 +1056,25 @@
         <v>0.3235262868055297</v>
       </c>
       <c r="D18" t="n">
+        <v>0.01023079949242355</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.897</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.3039588787977742</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.009612023720320296</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.9263966993068</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>1.024825519744374</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.03240782846658081</v>
       </c>
     </row>
     <row r="19">
@@ -922,16 +1090,25 @@
         <v>0.3042199032389349</v>
       </c>
       <c r="D19" t="n">
+        <v>0.009620278037910698</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.919</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2728351150420342</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.008627803892068945</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.008016178149156</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.6899984761015306</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.02181966766526096</v>
       </c>
     </row>
     <row r="20">
@@ -947,16 +1124,25 @@
         <v>0.3347939502722142</v>
       </c>
       <c r="D20" t="n">
+        <v>0.01058711429705346</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.911</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2847437444440176</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.009004387819280108</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.019569292607219</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>1.09947662648307</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.03476850373804706</v>
       </c>
     </row>
     <row r="21">
@@ -972,16 +1158,25 @@
         <v>0.2861143973507596</v>
       </c>
       <c r="D21" t="n">
+        <v>0.009047731669948459</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.947</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2240334796408786</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.00708456067798138</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.27900711616208</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.8910286507825115</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.02817679996939508</v>
       </c>
     </row>
     <row r="22">
@@ -997,16 +1192,25 @@
         <v>0.2897102244987779</v>
       </c>
       <c r="D22" t="n">
+        <v>0.009161441708548513</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.9370000000000001</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.242962960140018</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.007683163410991595</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.293871685361456</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>1.431694199895454</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.04527414584522037</v>
       </c>
     </row>
   </sheetData>
@@ -1020,7 +1224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1046,22 +1250,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -1078,16 +1297,25 @@
         <v>0.1398831760019689</v>
       </c>
       <c r="D2" t="n">
+        <v>0.004423494425044277</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>2.172773252106404</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.9067831415778691</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.02867500071228996</v>
       </c>
     </row>
     <row r="3">
@@ -1103,16 +1331,25 @@
         <v>0.1391146359760144</v>
       </c>
       <c r="D3" t="n">
+        <v>0.004399191055494066</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.263816489252751</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.9485731332260527</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0299965162823667</v>
       </c>
     </row>
     <row r="4">
@@ -1128,16 +1365,25 @@
         <v>0.1276853754422586</v>
       </c>
       <c r="D4" t="n">
+        <v>0.004037766102912667</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>2.104177836237948</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.8857934097659811</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.02801124711227337</v>
       </c>
     </row>
     <row r="5">
@@ -1153,16 +1399,25 @@
         <v>0.1282819929144405</v>
       </c>
       <c r="D5" t="n">
+        <v>0.004056632803952136</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>2.189410390456454</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.900064444699729</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.02846253686185811</v>
       </c>
     </row>
     <row r="6">
@@ -1178,16 +1433,25 @@
         <v>0.1318442972510141</v>
       </c>
       <c r="D6" t="n">
+        <v>0.004169282758174812</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.713201894727505</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.8786877990090011</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.02778654797068687</v>
       </c>
     </row>
     <row r="7">
@@ -1203,16 +1467,25 @@
         <v>0.1547510091886467</v>
       </c>
       <c r="D7" t="n">
+        <v>0.004893656592457692</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.96</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.1959591794226543</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.006196773353931867</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.661690487576182</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.4479957404560906</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01416686921894887</v>
       </c>
     </row>
     <row r="8">
@@ -1228,16 +1501,25 @@
         <v>0.1475456149376164</v>
       </c>
       <c r="D8" t="n">
+        <v>0.004665802019730303</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.958</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2005891323078097</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.006343185319695461</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.6582098208256166</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.4415394476819641</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0139627033148776</v>
       </c>
     </row>
     <row r="9">
@@ -1253,16 +1535,25 @@
         <v>0.225920212113103</v>
       </c>
       <c r="D9" t="n">
+        <v>0.007144224397457673</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.945</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.22798026230356</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007209368904418751</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.6501603366413115</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.4558838949471818</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.01441631456622021</v>
       </c>
     </row>
     <row r="10">
@@ -1278,16 +1569,25 @@
         <v>0.1554813984080372</v>
       </c>
       <c r="D10" t="n">
+        <v>0.007144224397457673</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.946</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2260176984220484</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.007147307185227175</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.6495989268620637</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.4587014128618966</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01450541230580848</v>
       </c>
     </row>
     <row r="11">
@@ -1303,16 +1603,25 @@
         <v>0.1239628650529283</v>
       </c>
       <c r="D11" t="n">
+        <v>0.003920049988473427</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.95</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2179449471770337</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006892024376045113</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.5605262490936253</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.3320791168492294</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.01050126372620763</v>
       </c>
     </row>
     <row r="12">
@@ -1328,16 +1637,25 @@
         <v>0.1730737910630312</v>
       </c>
       <c r="D12" t="n">
+        <v>0.005473073830392733</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.895</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3065534211193866</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.009694070352540258</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.5565740650689973</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.3881999421681515</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01227596004797002</v>
       </c>
     </row>
     <row r="13">
@@ -1353,16 +1671,25 @@
         <v>0.1784283110898894</v>
       </c>
       <c r="D13" t="n">
+        <v>0.00564239862101131</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.894</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3078376195334157</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.009734680272099337</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.5632477290210611</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.6261491418530164</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01980057443215395</v>
       </c>
     </row>
     <row r="14">
@@ -1378,16 +1705,25 @@
         <v>0.1726390012817541</v>
       </c>
       <c r="D14" t="n">
+        <v>0.005459324570270713</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.9340000000000001</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2482820976228452</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.00785136930732468</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.6423783450814101</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.4327934754695668</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01368613138944043</v>
       </c>
     </row>
     <row r="15">
@@ -1403,16 +1739,25 @@
         <v>0.1847913944941743</v>
       </c>
       <c r="D15" t="n">
+        <v>0.005843616986002895</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9330000000000001</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2500219990320852</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007906389820898032</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.6496242124941809</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.6875953897660441</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.02174367540291931</v>
       </c>
     </row>
     <row r="16">
@@ -1428,16 +1773,25 @@
         <v>0.1667613251286729</v>
       </c>
       <c r="D16" t="n">
+        <v>0.005273456130344782</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9409999999999999</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.235624701591323</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007451107300260815</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.6862896807447099</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.4754560943817249</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01503524185654237</v>
       </c>
     </row>
     <row r="17">
@@ -1453,16 +1807,25 @@
         <v>0.1656677160164551</v>
       </c>
       <c r="D17" t="n">
+        <v>0.00523887317369955</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2337434491060659</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007391616873188167</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.6946108412166925</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.774427076215538</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.02448953442545911</v>
       </c>
     </row>
   </sheetData>
@@ -1476,7 +1839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1502,22 +1865,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -1534,16 +1912,25 @@
         <v>0.2122318039064125</v>
       </c>
       <c r="D2" t="n">
+        <v>0.006711358922704845</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>4.863253452237777</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.7245678334014848</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0229128467284212</v>
       </c>
     </row>
     <row r="3">
@@ -1559,16 +1946,25 @@
         <v>0.2106536699584849</v>
       </c>
       <c r="D3" t="n">
+        <v>0.006661453945421995</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>4.947662673866144</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.7499549480552409</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.02371565778367826</v>
       </c>
     </row>
     <row r="4">
@@ -1584,16 +1980,25 @@
         <v>0.1931057948199263</v>
       </c>
       <c r="D4" t="n">
+        <v>0.006106541410081118</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>4.692659989467651</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.7058578554127423</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.02232118527426077</v>
       </c>
     </row>
     <row r="5">
@@ -1609,16 +2014,25 @@
         <v>0.1933057703725412</v>
       </c>
       <c r="D5" t="n">
+        <v>0.006112865192307257</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>4.78773665528817</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.724024269556279</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0228956577303755</v>
       </c>
     </row>
     <row r="6">
@@ -1634,16 +2048,25 @@
         <v>0.1750477887840074</v>
       </c>
       <c r="D6" t="n">
+        <v>0.005535497119335396</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>3.424093030497679</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.6387441208998602</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.02019886264085518</v>
       </c>
     </row>
     <row r="7">
@@ -1659,16 +2082,25 @@
         <v>0.3720375309958381</v>
       </c>
       <c r="D7" t="n">
+        <v>0.0117648597301234</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.677</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.4676227111678816</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.01478752852913562</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.014087016121857</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.3218654137233778</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01017827807398291</v>
       </c>
     </row>
     <row r="8">
@@ -1684,16 +2116,25 @@
         <v>0.2420735736911444</v>
       </c>
       <c r="D8" t="n">
+        <v>0.007655038542006298</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.715</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.4514144437210666</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01427497810856465</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.8180177020311818</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.42677672368365</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0134958649918466</v>
       </c>
     </row>
     <row r="9">
@@ -1709,16 +2150,25 @@
         <v>0.3634345510378666</v>
       </c>
       <c r="D9" t="n">
+        <v>0.0114928096168037</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.6889999999999999</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.4629027975720173</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.01463827175591436</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.9854801256502792</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.2756544900556984</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.008716960358282417</v>
       </c>
     </row>
     <row r="10">
@@ -1734,16 +2184,25 @@
         <v>0.2681692311302448</v>
       </c>
       <c r="D10" t="n">
+        <v>0.0114928096168037</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.716</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.4509368026675135</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01425987377223235</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.7969873430483564</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.2523073448795064</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.007978658802088619</v>
       </c>
     </row>
     <row r="11">
@@ -1759,16 +2218,25 @@
         <v>0.1998827060836038</v>
       </c>
       <c r="D11" t="n">
+        <v>0.006320846161021827</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.763</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.4252422838806132</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.01344734174474643</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.6842956680629659</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.2252870942292095</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.00712420345205278</v>
       </c>
     </row>
     <row r="12">
@@ -1784,16 +2252,25 @@
         <v>0.3287460951867107</v>
       </c>
       <c r="D12" t="n">
+        <v>0.01039586432676523</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.714</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.4518893669915237</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01428999650104926</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.328332953067816</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.3707478660367097</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01172407694322986</v>
       </c>
     </row>
     <row r="13">
@@ -1809,16 +2286,25 @@
         <v>0.3207796698558829</v>
       </c>
       <c r="D13" t="n">
+        <v>0.01014394383821446</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.733</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.4423923597893616</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.0139896747639107</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.28296846789623</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.6087950062629578</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0192517884792742</v>
       </c>
     </row>
     <row r="14">
@@ -1834,16 +2320,25 @@
         <v>0.2707661995584575</v>
       </c>
       <c r="D14" t="n">
+        <v>0.008562379039924036</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.927</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2601365026289083</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008226238508577297</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.535666752710377</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.4180785366577316</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01322080416668631</v>
       </c>
     </row>
     <row r="15">
@@ -1859,16 +2354,25 @@
         <v>0.2678391408094636</v>
       </c>
       <c r="D15" t="n">
+        <v>0.008469817315004596</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.904</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2945912422323515</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.009315793041926168</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.482900547744814</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.6705769269007857</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.02120550435362719</v>
       </c>
     </row>
     <row r="16">
@@ -1884,16 +2388,25 @@
         <v>0.257148173093315</v>
       </c>
       <c r="D16" t="n">
+        <v>0.008131739231261016</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.966</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.181229136730273</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.005730968504537431</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.638079408080239</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.4542034868850576</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01436317539747199</v>
       </c>
     </row>
     <row r="17">
@@ -1909,16 +2422,25 @@
         <v>0.2389178898877828</v>
       </c>
       <c r="D17" t="n">
+        <v>0.007555247058067044</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.967</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.1786365024288149</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.005648982209212558</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.582401970969425</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.7532240937482699</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.02381903724760727</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +2454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1958,22 +2480,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -1990,16 +2527,25 @@
         <v>0.1840885230534313</v>
       </c>
       <c r="D2" t="n">
+        <v>0.005821390239452574</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.999</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H2" t="n">
         <v>2.728510303069347</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.7745249882622602</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.02449263067623922</v>
       </c>
     </row>
     <row r="3">
@@ -2015,16 +2561,25 @@
         <v>0.1819182277766225</v>
       </c>
       <c r="D3" t="n">
+        <v>0.00575275947675436</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.999</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.81341376775172</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.8057603321127608</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.02548037897690037</v>
       </c>
     </row>
     <row r="4">
@@ -2040,16 +2595,25 @@
         <v>0.1664277456446092</v>
       </c>
       <c r="D4" t="n">
+        <v>0.00526290742084133</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>2.629298252665814</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.7332055470241927</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.02318599521666141</v>
       </c>
     </row>
     <row r="5">
@@ -2065,16 +2629,25 @@
         <v>0.1651840132612945</v>
       </c>
       <c r="D5" t="n">
+        <v>0.00522357714953149</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>2.716856588603962</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.7569380963527148</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0239364843222657</v>
       </c>
     </row>
     <row r="6">
@@ -2090,16 +2663,25 @@
         <v>0.1636591828856701</v>
       </c>
       <c r="D6" t="n">
+        <v>0.005175357779207656</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.114954046985621</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.8226708175007752</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.02601513547855159</v>
       </c>
     </row>
     <row r="7">
@@ -2115,16 +2697,25 @@
         <v>0.1551082166495855</v>
       </c>
       <c r="D7" t="n">
+        <v>0.004904952484195413</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.93</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2551470164434615</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.008068457101577725</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.6964019206195639</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.4460977819011914</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01410685049956804</v>
       </c>
     </row>
     <row r="8">
@@ -2140,16 +2731,25 @@
         <v>0.1487706002482844</v>
       </c>
       <c r="D8" t="n">
+        <v>0.0047045394565499</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.916</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2773878151613729</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.008771772910877253</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.6763484450591912</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.4418365961070223</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01397209997314076</v>
       </c>
     </row>
     <row r="9">
@@ -2165,16 +2765,25 @@
         <v>0.2564888138976442</v>
       </c>
       <c r="D9" t="n">
+        <v>0.008110888462716051</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.92</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2712931993250107</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.008579044235810887</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.6855595390952667</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.4616269478043299</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.01459792584373347</v>
       </c>
     </row>
     <row r="10">
@@ -2190,16 +2799,25 @@
         <v>0.1734570638521034</v>
       </c>
       <c r="D10" t="n">
+        <v>0.008110888462716051</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.913</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2818350581457176</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.00891240708226459</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.6702749133879338</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.466480581655852</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01475141122272652</v>
       </c>
     </row>
     <row r="11">
@@ -2215,16 +2833,25 @@
         <v>0.141276409233385</v>
       </c>
       <c r="D11" t="n">
+        <v>0.004467552328275393</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.925</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2633913438213185</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.008329165624478841</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.5827384125082467</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.3320404550816853</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.01050004113376956</v>
       </c>
     </row>
     <row r="12">
@@ -2240,16 +2867,25 @@
         <v>0.1731415821872018</v>
       </c>
       <c r="D12" t="n">
+        <v>0.005475217573967957</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.848</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3590208907570701</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01135323742374835</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.6118654700548185</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.3868235251916546</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0122324339214115</v>
       </c>
     </row>
     <row r="13">
@@ -2265,16 +2901,25 @@
         <v>0.1778996827670571</v>
       </c>
       <c r="D13" t="n">
+        <v>0.005625681925653064</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.863</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3438473498516456</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.0108734079294396</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.6163839762186895</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.6252815848584146</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01977313987112443</v>
       </c>
     </row>
     <row r="14">
@@ -2290,16 +2935,25 @@
         <v>0.1706823405208541</v>
       </c>
       <c r="D14" t="n">
+        <v>0.005397449524143492</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.948</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.00702111102319284</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.7063504882891917</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.4313549550808556</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01364064138055124</v>
       </c>
     </row>
     <row r="15">
@@ -2315,16 +2969,25 @@
         <v>0.1804510116514047</v>
       </c>
       <c r="D15" t="n">
+        <v>0.005706362029000211</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.927</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2601365026289083</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.008226238508577297</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.7111126024481889</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.6865925617205423</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0217119631956665</v>
       </c>
     </row>
     <row r="16">
@@ -2340,16 +3003,25 @@
         <v>0.166000252455786</v>
       </c>
       <c r="D16" t="n">
+        <v>0.005249388899232431</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.955</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2073041244162788</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.006555532015023648</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.754485043736666</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.4737709205186535</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01498195197993547</v>
       </c>
     </row>
     <row r="17">
@@ -2365,16 +3037,25 @@
         <v>0.1644710575790979</v>
       </c>
       <c r="D17" t="n">
+        <v>0.005201031511266485</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.946</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2260176984220484</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007147307185227175</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.76015551628421</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.7733730944554024</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.02445620459571609</v>
       </c>
     </row>
   </sheetData>
@@ -2388,7 +3069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2414,22 +3095,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -2446,16 +3142,25 @@
         <v>0.1574829407010698</v>
       </c>
       <c r="D2" t="n">
+        <v>0.004980047852366148</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.9340000000000001</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.2482820976228452</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.00785136930732468</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.8080188251304384</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.3493458067604401</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01104728440392039</v>
       </c>
     </row>
     <row r="3">
@@ -2471,16 +3176,25 @@
         <v>0.1560591711344815</v>
       </c>
       <c r="D3" t="n">
+        <v>0.004935024305429649</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.958</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.2005891323078097</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.006343185319695461</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.8956744286885375</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.3894726285087293</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01231620592380213</v>
       </c>
     </row>
     <row r="4">
@@ -2496,16 +3210,25 @@
         <v>0.1523521013560685</v>
       </c>
       <c r="D4" t="n">
+        <v>0.004817796465980042</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.9429999999999999</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.2318426190328259</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.007331507348424336</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.7927266945549597</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.3447852926316162</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01090306828443577</v>
       </c>
     </row>
     <row r="5">
@@ -2521,16 +3244,25 @@
         <v>0.1508622801003202</v>
       </c>
       <c r="D5" t="n">
+        <v>0.004770684181233072</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.964</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1862900963551203</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.005891010100144116</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.8730028267287616</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.3694108736309254</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0116817975310636</v>
       </c>
     </row>
     <row r="6">
@@ -2546,16 +3278,25 @@
         <v>0.1427977907292373</v>
       </c>
       <c r="D6" t="n">
+        <v>0.004515662635444666</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.967</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1786365024288149</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.005648982209212558</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.7596695605953444</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.3953069182169235</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.01250070236387386</v>
       </c>
     </row>
     <row r="7">
@@ -2571,16 +3312,25 @@
         <v>0.197687348314753</v>
       </c>
       <c r="D7" t="n">
+        <v>0.006251422852736685</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.955</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2073041244162788</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.006555532015023648</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.863593951617815</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.5630219084000373</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01780431603118806</v>
       </c>
     </row>
     <row r="8">
@@ -2596,16 +3346,25 @@
         <v>0.1931133001681843</v>
       </c>
       <c r="D8" t="n">
+        <v>0.006106778750032399</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.95</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2179449471770337</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.006892024376045112</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.8590131805229407</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.5548487858486587</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01754585920260763</v>
       </c>
     </row>
     <row r="9">
@@ -2621,16 +3380,25 @@
         <v>0.2270013546856769</v>
       </c>
       <c r="D9" t="n">
+        <v>0.007178413127504749</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2337434491060659</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007391616873188167</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.8476314893264627</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.5662456405456654</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.01790625939265292</v>
       </c>
     </row>
     <row r="10">
@@ -2646,16 +3414,25 @@
         <v>0.2005331643054943</v>
       </c>
       <c r="D10" t="n">
+        <v>0.007178413127504749</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2337434491060659</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.007391616873188167</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.8426489717264702</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.5514195696672323</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0174374178653835</v>
       </c>
     </row>
     <row r="11">
@@ -2671,16 +3448,25 @@
         <v>0.1632983064505572</v>
       </c>
       <c r="D11" t="n">
+        <v>0.005163945864319271</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.9429999999999999</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2318426190328258</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.007331507348424335</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.728587288130931</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.4040920513934481</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.01277851266773113</v>
       </c>
     </row>
     <row r="12">
@@ -2696,16 +3482,25 @@
         <v>0.2342989815977879</v>
       </c>
       <c r="D12" t="n">
+        <v>0.007409184353068869</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.905</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2932149382279149</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.009272270487857868</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.7418605629151442</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.5194394578455581</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01642611793354983</v>
       </c>
     </row>
     <row r="13">
@@ -2721,16 +3516,25 @@
         <v>0.2416534246374297</v>
       </c>
       <c r="D13" t="n">
+        <v>0.00764175226234127</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.899</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3013287241535396</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.009528850927577782</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.7494923531016389</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.7992473926024128</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.02527442174574436</v>
       </c>
     </row>
     <row r="14">
@@ -2746,16 +3550,25 @@
         <v>0.2265147722972105</v>
       </c>
       <c r="D14" t="n">
+        <v>0.00716302604133596</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.927</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2601365026289083</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008226238508577297</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.8126617370609683</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.5654746490547427</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01788187850097367</v>
       </c>
     </row>
     <row r="15">
@@ -2771,16 +3584,25 @@
         <v>0.2478555742108414</v>
       </c>
       <c r="D15" t="n">
+        <v>0.007837881452751496</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.92</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2712931993250107</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.008579044235810887</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.8222348686911453</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.910571931048386</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.02879481275530693</v>
       </c>
     </row>
     <row r="16">
@@ -2796,16 +3618,25 @@
         <v>0.216402528179036</v>
       </c>
       <c r="D16" t="n">
+        <v>0.006843248804645239</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9409999999999999</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.235624701591323</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007451107300260814</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.9457473013223358</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.6565695471311859</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.02076255211239819</v>
       </c>
     </row>
     <row r="17">
@@ -2821,16 +3652,25 @@
         <v>0.2300333169981024</v>
       </c>
       <c r="D17" t="n">
+        <v>0.007274292194375304</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2374868417407584</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007509993342207436</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.9570301676884726</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>1.062841378302976</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0336099954691007</v>
       </c>
     </row>
   </sheetData>
@@ -2844,7 +3684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2870,22 +3710,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -2902,16 +3757,25 @@
         <v>0.2391420831321302</v>
       </c>
       <c r="D2" t="n">
+        <v>0.007562336670948648</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.9370000000000001</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.2429629601400181</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.007683163410991596</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.41913105808245</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.2982477428257059</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.009431421743333739</v>
       </c>
     </row>
     <row r="3">
@@ -2927,16 +3791,25 @@
         <v>0.2361841337367497</v>
       </c>
       <c r="D3" t="n">
+        <v>0.007468798098019443</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.968</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.176</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.005565608681896348</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.530929877312689</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.3315354634365777</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0104840718957906</v>
       </c>
     </row>
     <row r="4">
@@ -2952,16 +3825,25 @@
         <v>0.2351655257118939</v>
       </c>
       <c r="D4" t="n">
+        <v>0.007436586884004746</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.931</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.2534541378632434</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.008014923580421713</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.384976987440103</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.2933103121811473</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.009275286477074554</v>
       </c>
     </row>
     <row r="5">
@@ -2977,16 +3859,25 @@
         <v>0.2343403545160046</v>
       </c>
       <c r="D5" t="n">
+        <v>0.007410492679618996</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.95</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.2179449471770337</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.006892024376045113</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.487057562167034</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.3166670393752556</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01001389104328032</v>
       </c>
     </row>
     <row r="6">
@@ -3002,16 +3893,25 @@
         <v>0.176048000806888</v>
       </c>
       <c r="D6" t="n">
+        <v>0.005567126600689269</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.979</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1433840995368733</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.004534203347888138</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.181445971926456</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.3358742262993011</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.01062127562452619</v>
       </c>
     </row>
     <row r="7">
@@ -3027,16 +3927,25 @@
         <v>0.4387442889267271</v>
       </c>
       <c r="D7" t="n">
+        <v>0.0138743126339945</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.749</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.4335885146080325</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.01371127273450572</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.270693958368287</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.4641142023913175</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01467657973988929</v>
       </c>
     </row>
     <row r="8">
@@ -3052,16 +3961,25 @@
         <v>0.2950895727041082</v>
       </c>
       <c r="D8" t="n">
+        <v>0.009331551635108343</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.789</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.4080183819388534</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01290267414143285</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.052624231938518</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.5326879864030835</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01684507319242548</v>
       </c>
     </row>
     <row r="9">
@@ -3077,16 +3995,25 @@
         <v>0.3988795720591663</v>
       </c>
       <c r="D9" t="n">
+        <v>0.01261367959820225</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.781</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.4135686158305535</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.01307818794787718</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.2466002645604</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.4026336797318372</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.01273239490647379</v>
       </c>
     </row>
     <row r="10">
@@ -3102,16 +4029,25 @@
         <v>0.2980724047855124</v>
       </c>
       <c r="D10" t="n">
+        <v>0.01261367959820225</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.8129999999999999</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3899115284266419</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01233008515785678</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.025074476980403</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.3360333389471674</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01062630720824416</v>
       </c>
     </row>
     <row r="11">
@@ -3127,16 +4063,25 @@
         <v>0.233411424995959</v>
       </c>
       <c r="D11" t="n">
+        <v>0.007381117348927885</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.834</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.3720806364217304</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.01176622284337671</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.8822209532239906</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.2665907377780934</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.008430339344834711</v>
       </c>
     </row>
     <row r="12">
@@ -3152,16 +4097,25 @@
         <v>0.3479459556000543</v>
       </c>
       <c r="D12" t="n">
+        <v>0.0110030172233999</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.867</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.339574734042449</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01073829595420055</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.770210751687603</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.4969502392597456</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01571494639826424</v>
       </c>
     </row>
     <row r="13">
@@ -3177,16 +4131,25 @@
         <v>0.3474075107981648</v>
       </c>
       <c r="D13" t="n">
+        <v>0.01098599010371742</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.872</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3340898082851376</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01056484737230027</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.708750782965673</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.7753133645986948</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.02451756132500434</v>
       </c>
     </row>
     <row r="14">
@@ -3202,16 +4165,25 @@
         <v>0.3269865113331267</v>
       </c>
       <c r="D14" t="n">
+        <v>0.01034022139965141</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.945</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.22798026230356</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007209368904418751</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.939564569855987</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.5401388394868488</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01708068985498536</v>
       </c>
     </row>
     <row r="15">
@@ -3227,16 +4199,25 @@
         <v>0.3281509309522268</v>
       </c>
       <c r="D15" t="n">
+        <v>0.01037704358113683</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.955</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2073041244162788</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.006555532015023648</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.873271508404549</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.885106817801765</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.02798953516797245</v>
       </c>
     </row>
     <row r="16">
@@ -3252,16 +4233,25 @@
         <v>0.3274557372724118</v>
       </c>
       <c r="D16" t="n">
+        <v>0.01035505962670514</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.975</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.15612494995996</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.004937104414532875</v>
+      </c>
+      <c r="H16" t="n">
         <v>2.257247626056492</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.6280266834926175</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01985994751198342</v>
       </c>
     </row>
     <row r="17">
@@ -3277,16 +4267,25 @@
         <v>0.3059111022720684</v>
       </c>
       <c r="D17" t="n">
+        <v>0.009673758447124462</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.984</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.125475097130865</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.003967870965643919</v>
+      </c>
+      <c r="H17" t="n">
         <v>2.180367899543622</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>1.0337992215552</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.03269160183423471</v>
       </c>
     </row>
   </sheetData>
@@ -3300,7 +4299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3326,22 +4325,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -3358,16 +4372,25 @@
         <v>0.1632932043302796</v>
       </c>
       <c r="D2" t="n">
+        <v>0.005163784521109535</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.952</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.2137662274541982</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.006759881655768835</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.9123807908474368</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.3213889567884544</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0101632111827695</v>
       </c>
     </row>
     <row r="3">
@@ -3383,16 +4406,25 @@
         <v>0.1607842898526065</v>
       </c>
       <c r="D3" t="n">
+        <v>0.00508444567906935</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.974</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1591351626762608</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.005032295698784005</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.9988436939676915</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.3590226573606951</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01135329328866013</v>
       </c>
     </row>
     <row r="4">
@@ -3408,16 +4440,25 @@
         <v>0.1586295460222677</v>
       </c>
       <c r="D4" t="n">
+        <v>0.005016306696288689</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.964</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1862900963551203</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.005891010100144116</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.8922802780307808</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.3134272745301759</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.009911440683342371</v>
       </c>
     </row>
     <row r="5">
@@ -3433,16 +4474,25 @@
         <v>0.1555311965239989</v>
       </c>
       <c r="D5" t="n">
+        <v>0.004918328282270996</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.974</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1591351626762608</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.005032295698784005</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.9720709352721938</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.3397348663848185</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01074335978349001</v>
       </c>
     </row>
     <row r="6">
@@ -3458,16 +4508,25 @@
         <v>0.1447979761523502</v>
       </c>
       <c r="D6" t="n">
+        <v>0.004578914052241707</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.979</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1433840995368733</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.004534203347888138</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.8390527875092908</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.3822259901125533</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.01208704709668667</v>
       </c>
     </row>
     <row r="7">
@@ -3483,16 +4542,25 @@
         <v>0.1986806302701332</v>
       </c>
       <c r="D7" t="n">
+        <v>0.006282833186114157</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.9320000000000001</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.251745903640953</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.007960904471226871</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.9085995850868962</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.5597691271889846</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01770145405761678</v>
       </c>
     </row>
     <row r="8">
@@ -3508,16 +4576,25 @@
         <v>0.1942189742480976</v>
       </c>
       <c r="D8" t="n">
+        <v>0.006141743234455768</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.925</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2633913438213185</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.008329165624478841</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.8823690873071079</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.5542959057659638</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01752837559926504</v>
       </c>
     </row>
     <row r="9">
@@ -3533,16 +4610,25 @@
         <v>0.2517419231036749</v>
       </c>
       <c r="D9" t="n">
+        <v>0.007960778595585773</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.928</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2584879107424562</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.008174105455644672</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.8947633702336333</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.5752579060312399</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.01819125225077831</v>
       </c>
     </row>
     <row r="10">
@@ -3558,16 +4644,25 @@
         <v>0.2237101884522653</v>
       </c>
       <c r="D10" t="n">
+        <v>0.007960778595585773</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.917</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2758822212466762</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.008724161850859944</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.870543105981857</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.563253106007999</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01781162714149548</v>
       </c>
     </row>
     <row r="11">
@@ -3583,16 +4678,25 @@
         <v>0.1861269372405354</v>
       </c>
       <c r="D11" t="n">
+        <v>0.00588585055591307</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.9330000000000001</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2500219990320852</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.007906389820898032</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.7574797434516642</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.4043057854107694</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.01278527153081307</v>
       </c>
     </row>
     <row r="12">
@@ -3608,16 +4712,25 @@
         <v>0.2319577355123195</v>
       </c>
       <c r="D12" t="n">
+        <v>0.007335147651138537</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.888</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3153664535108324</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.00997276290703835</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.815526982268623</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.5176344587358035</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01636903884993582</v>
       </c>
     </row>
     <row r="13">
@@ -3633,16 +4746,25 @@
         <v>0.2407453953579318</v>
       </c>
       <c r="D13" t="n">
+        <v>0.007613037855287919</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.898</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3026483107502832</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.009570579919733181</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.820315540378813</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.797952725562492</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.02523348077916738</v>
       </c>
     </row>
     <row r="14">
@@ -3658,16 +4780,25 @@
         <v>0.2243382110176477</v>
       </c>
       <c r="D14" t="n">
+        <v>0.007094197130232472</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.9320000000000001</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.251745903640953</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007960904471226871</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.8934045451054479</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.5634756207353848</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01781866367501018</v>
       </c>
     </row>
     <row r="15">
@@ -3683,16 +4814,25 @@
         <v>0.246827535475977</v>
       </c>
       <c r="D15" t="n">
+        <v>0.007805372013501001</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.922</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2681715868618448</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.00848033018225116</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.8998352369064168</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.9092894692433905</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.02875425775214736</v>
       </c>
     </row>
     <row r="16">
@@ -3708,16 +4848,25 @@
         <v>0.2146644647508395</v>
       </c>
       <c r="D16" t="n">
+        <v>0.006788286413135823</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.953</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.006692607862410586</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.039723329845548</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.6542852832505448</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.02069031734600138</v>
       </c>
     </row>
     <row r="17">
@@ -3733,16 +4882,25 @@
         <v>0.22983096976953</v>
       </c>
       <c r="D17" t="n">
+        <v>0.00726789341317019</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.947</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2240334796408786</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.00708456067798138</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.04735487719397</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>1.061385321433492</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.03356395090799766</v>
       </c>
     </row>
   </sheetData>
@@ -3756,7 +4914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3782,22 +4940,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -3814,16 +4987,25 @@
         <v>0.2960609511914883</v>
       </c>
       <c r="D2" t="n">
+        <v>0.009362269320010445</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.8139999999999999</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.3891066691795452</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.01230463327369004</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.268025290448345</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.3301047647718543</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01043882923153173</v>
       </c>
     </row>
     <row r="3">
@@ -3839,16 +5021,25 @@
         <v>0.2907807240564574</v>
       </c>
       <c r="D3" t="n">
+        <v>0.009195293876913214</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.82</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.3841874542459708</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.01214907403878995</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.275700818318046</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.3285066316769971</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0103882918256933</v>
       </c>
     </row>
     <row r="4">
@@ -3864,16 +5055,25 @@
         <v>0.2922266111840492</v>
       </c>
       <c r="D4" t="n">
+        <v>0.009241016842540299</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.3923009049186606</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.0124056438768812</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.237101999995573</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.3214502340306299</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01016514893930958</v>
       </c>
     </row>
     <row r="5">
@@ -3889,16 +5089,25 @@
         <v>0.2895021402479453</v>
       </c>
       <c r="D5" t="n">
+        <v>0.009154861506770107</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.8159999999999999</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.3874841932259947</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.01225332607906931</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.242687683440313</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.3121445238824417</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.009870876546173407</v>
       </c>
     </row>
     <row r="6">
@@ -3914,16 +5123,25 @@
         <v>0.2203773253319868</v>
       </c>
       <c r="D6" t="n">
+        <v>0.00696894292705001</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.899</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.3013287241535397</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.009528850927577784</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.050957936580101</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.3567792407585353</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.01128235022662552</v>
       </c>
     </row>
     <row r="7">
@@ -3939,16 +5157,25 @@
         <v>2.24752889625023</v>
       </c>
       <c r="D7" t="n">
+        <v>0.07107310419195</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.956</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2050950998927083</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.006485676526007137</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.170115106144851</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>3.387680978152208</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.1071278787698809</v>
       </c>
     </row>
     <row r="8">
@@ -3964,16 +5191,25 @@
         <v>0.7306847556838492</v>
       </c>
       <c r="D8" t="n">
+        <v>0.02310628079524626</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.874</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.331849363416596</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01049399828473399</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.699442076187183</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>4.24938036395754</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.1343772059450111</v>
       </c>
     </row>
     <row r="9">
@@ -3989,16 +5225,25 @@
         <v>1.293158072447075</v>
       </c>
       <c r="D9" t="n">
+        <v>0.0408932488356579</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.95</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2179449471770337</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.006892024376045112</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.023961300390315</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>1.277617907352232</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.04040182566651036</v>
       </c>
     </row>
     <row r="10">
@@ -4014,16 +5259,25 @@
         <v>0.3334101165246955</v>
       </c>
       <c r="D10" t="n">
+        <v>0.01054335363160181</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.887</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3165927984019852</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01001154333756789</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.588879914983601</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.8217817875548408</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0259870218831791</v>
       </c>
     </row>
     <row r="11">
@@ -4039,16 +5293,25 @@
         <v>0.4163278440921393</v>
       </c>
       <c r="D11" t="n">
+        <v>0.01316544240678636</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.961</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.1935949379503503</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006122009474020765</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.092647785767594</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.9934334223815029</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.03141512318461644</v>
       </c>
     </row>
     <row r="12">
@@ -4064,16 +5327,25 @@
         <v>0.5385166948121206</v>
       </c>
       <c r="D12" t="n">
+        <v>0.01702939313632082</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.747</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.4347309512790641</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01374739975413533</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.532417428113933</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.6679449960398708</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0211222753919814</v>
       </c>
     </row>
     <row r="13">
@@ -4089,16 +5361,25 @@
         <v>0.367676435257115</v>
       </c>
       <c r="D13" t="n">
+        <v>0.0116269497738392</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.786</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.410126809657696</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01296934848016661</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.30580619219417</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.625436820466505</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0197780488520797</v>
       </c>
     </row>
     <row r="14">
@@ -4114,16 +5395,25 @@
         <v>0.4881137917893652</v>
       </c>
       <c r="D14" t="n">
+        <v>0.01543551339395589</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.779</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.4149204743080293</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.01312093746650749</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.519113539032827</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.584501546243708</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01848356182020353</v>
       </c>
     </row>
     <row r="15">
@@ -4139,16 +5429,25 @@
         <v>0.3525960252924243</v>
       </c>
       <c r="D15" t="n">
+        <v>0.01543551339395589</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.8149999999999999</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.3882975663070785</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.01227904719430624</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.2769116282575</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.4493121901748319</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01420849901431197</v>
       </c>
     </row>
     <row r="16">
@@ -4164,16 +5463,25 @@
         <v>0.2832114909507184</v>
       </c>
       <c r="D16" t="n">
+        <v>0.00895593370936436</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.843</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.3638007696528417</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.01150439046625244</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.102681349236226</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.3514904515040677</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0111151040255381</v>
       </c>
     </row>
     <row r="17">
@@ -4189,16 +5497,25 @@
         <v>0.4368965155959252</v>
       </c>
       <c r="D17" t="n">
+        <v>0.013815880910744</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.851</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3560884721526379</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01126050620531777</v>
+      </c>
+      <c r="H17" t="n">
         <v>2.185046345459885</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.610895190283831</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0193182021293887</v>
       </c>
     </row>
     <row r="18">
@@ -4214,16 +5531,25 @@
         <v>0.4489186621809381</v>
       </c>
       <c r="D18" t="n">
+        <v>0.01419605456647456</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.861</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.3459465276599839</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.01093978976031989</v>
+      </c>
+      <c r="H18" t="n">
         <v>2.110242268609092</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.9961643488555822</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.03150148266242188</v>
       </c>
     </row>
     <row r="19">
@@ -4239,16 +5565,25 @@
         <v>0.4185421985352786</v>
       </c>
       <c r="D19" t="n">
+        <v>0.0132354664426587</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.928</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2584879107424562</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.008174105455644672</v>
+      </c>
+      <c r="H19" t="n">
         <v>2.406257785820918</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.6623085586875536</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.02094403559275969</v>
       </c>
     </row>
     <row r="20">
@@ -4264,16 +5599,25 @@
         <v>0.4312756776897607</v>
       </c>
       <c r="D20" t="n">
+        <v>0.01363813440932309</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.944</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2299217258111986</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.007270763371201129</v>
+      </c>
+      <c r="H20" t="n">
         <v>2.324442991396569</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>1.069760111539032</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.03382878502459113</v>
       </c>
     </row>
     <row r="21">
@@ -4289,16 +5633,25 @@
         <v>0.4314785412763595</v>
       </c>
       <c r="D21" t="n">
+        <v>0.01364454951920272</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.979</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.1433840995368733</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.004534203347888138</v>
+      </c>
+      <c r="H21" t="n">
         <v>3.051738495379809</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.8552833231286986</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.02704643345844457</v>
       </c>
     </row>
     <row r="22">
@@ -4314,16 +5667,25 @@
         <v>0.3969743128969109</v>
       </c>
       <c r="D22" t="n">
+        <v>0.01255343001334594</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.988</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.1088852607105296</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.003443254274665176</v>
+      </c>
+      <c r="H22" t="n">
         <v>2.947535550679743</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>1.393776079351102</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0440750695900906</v>
       </c>
     </row>
   </sheetData>
@@ -4337,7 +5699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4363,22 +5725,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -4395,16 +5772,25 @@
         <v>0.2062096734393027</v>
       </c>
       <c r="D2" t="n">
+        <v>0.006520922436277236</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.887</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.3165927984019852</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.01001154333756789</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.8931833913156838</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.3561069030893263</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01126108904271123</v>
       </c>
     </row>
     <row r="3">
@@ -4420,16 +5806,25 @@
         <v>0.2026535378784033</v>
       </c>
       <c r="D3" t="n">
+        <v>0.006408467555869612</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.887</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.3165927984019852</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.01001154333756789</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.893214612587824</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.3553543317056767</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01123729064596925</v>
       </c>
     </row>
     <row r="4">
@@ -4445,16 +5840,25 @@
         <v>0.2076130908315534</v>
       </c>
       <c r="D4" t="n">
+        <v>0.006565302390951298</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.877</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.3284372086107175</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.01038609647557734</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.8725231453141448</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.3472130140495137</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01097983957648507</v>
       </c>
     </row>
     <row r="5">
@@ -4470,16 +5874,25 @@
         <v>0.20245551805677</v>
       </c>
       <c r="D5" t="n">
+        <v>0.006402205619287396</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.879</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.3261272757682191</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.01031304998533412</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.8731897563640396</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.3367888503763752</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01065019857739002</v>
       </c>
     </row>
     <row r="6">
@@ -4495,16 +5908,25 @@
         <v>0.1799833809810584</v>
       </c>
       <c r="D6" t="n">
+        <v>0.005691574248779753</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.916</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.2773878151613729</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.008771772910877253</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.7944046577891345</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.3893771153918689</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.01231318553384512</v>
       </c>
     </row>
     <row r="7">
@@ -4520,16 +5942,25 @@
         <v>0.3339652871654031</v>
       </c>
       <c r="D7" t="n">
+        <v>0.01056090966874872</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.927</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2601365026289083</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.008226238508577297</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.651324339740751</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.8830992694465571</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.02792605091481864</v>
       </c>
     </row>
     <row r="8">
@@ -4545,16 +5976,25 @@
         <v>2.910400481053311</v>
       </c>
       <c r="D8" t="n">
+        <v>0.09203494423378189</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.912</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2832948993540124</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.008958571314668427</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.907164429213487</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>6.748562424634147</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.2134082819367231</v>
       </c>
     </row>
     <row r="9">
@@ -4570,16 +6010,25 @@
         <v>0.296337900347283</v>
       </c>
       <c r="D9" t="n">
+        <v>0.009371027221294166</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.95</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2179449471770337</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.006892024376045113</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.648174538812673</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.8679464232035998</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.02744687584319794</v>
       </c>
     </row>
     <row r="10">
@@ -4595,16 +6044,25 @@
         <v>2.288618325260185</v>
       </c>
       <c r="D10" t="n">
+        <v>0.07237246602622255</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2337434491060658</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.007391616873188166</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.722991733636485</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>2.633580668162455</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.08328113313181446</v>
       </c>
     </row>
     <row r="11">
@@ -4620,16 +6078,25 @@
         <v>0.4401772435032096</v>
       </c>
       <c r="D11" t="n">
+        <v>0.01391962663644697</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.956</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2050950998927083</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006485676526007137</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.003107868156269</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>1.004558872565157</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.03176694081036729</v>
       </c>
     </row>
     <row r="12">
@@ -4645,16 +6112,25 @@
         <v>0.2439090805084533</v>
       </c>
       <c r="D12" t="n">
+        <v>0.007713082364040925</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.9379999999999999</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2411555514600482</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.007626008130076966</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.146414183029594</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.6584328348517261</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.02082147444372949</v>
       </c>
     </row>
     <row r="13">
@@ -4670,16 +6146,25 @@
         <v>0.2413399808789228</v>
       </c>
       <c r="D13" t="n">
+        <v>0.007631840300388814</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.92</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2712931993250107</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.008579044235810887</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.113341372045014</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.6523016871401828</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.02062759052933543</v>
       </c>
     </row>
     <row r="14">
@@ -4695,16 +6180,25 @@
         <v>0.2776709655276797</v>
       </c>
       <c r="D14" t="n">
+        <v>0.008780726911655658</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.929</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2568248430350927</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008121514637061242</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.129419369894298</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.6722959737800004</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.02125986538905642</v>
       </c>
     </row>
     <row r="15">
@@ -4720,16 +6214,25 @@
         <v>0.2716512496608214</v>
       </c>
       <c r="D15" t="n">
+        <v>0.008780726911655658</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.925</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2633913438213185</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.008329165624478841</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.097008589162142</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.6588085862484064</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.02083335674620449</v>
       </c>
     </row>
     <row r="16">
@@ -4745,16 +6248,25 @@
         <v>0.2257513161906098</v>
       </c>
       <c r="D16" t="n">
+        <v>0.007138883439431734</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9379999999999999</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2411555514600482</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007626008130076966</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.9546102423713624</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.4797914321760247</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01517233727510435</v>
       </c>
     </row>
     <row r="17">
@@ -4770,16 +6282,25 @@
         <v>0.2991210548506001</v>
       </c>
       <c r="D17" t="n">
+        <v>0.009459038294400533</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.876</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3295815528818322</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01042228381881821</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.006668018295023</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.6373491733850737</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.02015475052722402</v>
       </c>
     </row>
     <row r="18">
@@ -4795,16 +6316,25 @@
         <v>0.3213176860501835</v>
       </c>
       <c r="D18" t="n">
+        <v>0.01016095740413492</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.882</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.3226081214104816</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.01020176455325254</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.013806525423593</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>1.023390329061834</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.03236244375224603</v>
       </c>
     </row>
     <row r="19">
@@ -4820,16 +6350,25 @@
         <v>0.2961311468846596</v>
       </c>
       <c r="D19" t="n">
+        <v>0.009364489102734</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.918</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2743647207641682</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.008676174272108645</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.108234789484798</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.6877797251426013</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.02174950459935196</v>
       </c>
     </row>
     <row r="20">
@@ -4845,16 +6384,25 @@
         <v>0.3293022325447563</v>
       </c>
       <c r="D20" t="n">
+        <v>0.01041345093419856</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.921</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.26973876250921</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.008529888627643386</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.115886774983624</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>1.097930106077771</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.03471959846876033</v>
       </c>
     </row>
     <row r="21">
@@ -4870,16 +6418,25 @@
         <v>0.2842990078862119</v>
       </c>
       <c r="D21" t="n">
+        <v>0.00899032401446602</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.962</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.19119623427254</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.006046155803483731</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.406050060462085</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.8881179495278334</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.02808475551386416</v>
       </c>
     </row>
     <row r="22">
@@ -4895,16 +6452,25 @@
         <v>0.2905962285235164</v>
       </c>
       <c r="D22" t="n">
+        <v>0.009189459615891012</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.947</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.2240334796408786</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.00708456067798138</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.415982408284975</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>1.429800354263594</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.04521425718788597</v>
       </c>
     </row>
   </sheetData>
@@ -4918,7 +6484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4944,22 +6510,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -4976,16 +6557,25 @@
         <v>0.1590170299716892</v>
       </c>
       <c r="D2" t="n">
+        <v>0.005028560014657984</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.976</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1530490117576719</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.004839834707921336</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.056626846346916</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.4545108933194763</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01437289644247353</v>
       </c>
     </row>
     <row r="3">
@@ -5001,16 +6591,25 @@
         <v>0.158581782376071</v>
       </c>
       <c r="D3" t="n">
+        <v>0.005014796277175331</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.986</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1174904251417961</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003715373467095872</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.160014115566054</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.5019631838761709</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01587346962598608</v>
       </c>
     </row>
     <row r="4">
@@ -5026,16 +6625,25 @@
         <v>0.150755102444891</v>
       </c>
       <c r="D4" t="n">
+        <v>0.004767294926178744</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.99</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.09949874371066199</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.003146426544510454</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.036027012500494</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.4476234728412225</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01415509708332785</v>
       </c>
     </row>
     <row r="5">
@@ -5051,16 +6659,25 @@
         <v>0.1526757023255284</v>
       </c>
       <c r="D5" t="n">
+        <v>0.00482802962714536</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.996</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.129821251823136</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.4754032659131525</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0150335712736825</v>
       </c>
     </row>
     <row r="6">
@@ -5076,16 +6693,25 @@
         <v>0.1303960585893831</v>
       </c>
       <c r="D6" t="n">
+        <v>0.004123485430512134</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.989</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1043024448419116</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.964242401362456</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.4985708359066741</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0157661941639915</v>
       </c>
     </row>
     <row r="7">
@@ -5101,16 +6727,25 @@
         <v>0.1710265041331885</v>
       </c>
       <c r="D7" t="n">
+        <v>0.005408332933170772</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.953</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.006692607862410586</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.7346847285564538</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.4912799342854091</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01553563561079739</v>
       </c>
     </row>
     <row r="8">
@@ -5126,16 +6761,25 @@
         <v>0.1665136049681032</v>
       </c>
       <c r="D8" t="n">
+        <v>0.005265622531047351</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.953</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.006692607862410586</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.7336251710830439</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.4848601408943211</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01533262391856204</v>
       </c>
     </row>
     <row r="9">
@@ -5151,16 +6795,25 @@
         <v>0.2157373370276388</v>
       </c>
       <c r="D9" t="n">
+        <v>0.006822213613467187</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2337434491060659</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007391616873188167</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.7226444433397159</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.5016532647647804</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.01586366912316198</v>
       </c>
     </row>
     <row r="10">
@@ -5176,16 +6829,25 @@
         <v>0.1692001158476643</v>
       </c>
       <c r="D10" t="n">
+        <v>0.006822213613467187</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.9389999999999999</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.239330315672712</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.007568289106528635</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.7224906735865022</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.4942666245669069</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01563008305034761</v>
       </c>
     </row>
     <row r="11">
@@ -5201,16 +6863,25 @@
         <v>0.1352806510561829</v>
       </c>
       <c r="D11" t="n">
+        <v>0.004277949806880012</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.953</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006692607862410586</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.6214920770188205</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.3589894127133358</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.01135224200060348</v>
       </c>
     </row>
     <row r="12">
@@ -5226,16 +6897,25 @@
         <v>0.2651062466541737</v>
       </c>
       <c r="D12" t="n">
+        <v>0.008383395613655817</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.929</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2568248430350927</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.008121514637061242</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.7912589509176965</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.5753926250307444</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01819551243960364</v>
       </c>
     </row>
     <row r="13">
@@ -5251,16 +6931,25 @@
         <v>0.298702262128043</v>
       </c>
       <c r="D13" t="n">
+        <v>0.009445794905692697</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.919</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2728351150420342</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.008627803892068945</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.7987970356023577</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.8499210943785753</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.02687686489659229</v>
       </c>
     </row>
     <row r="14">
@@ -5276,16 +6965,25 @@
         <v>0.2891100500826179</v>
       </c>
       <c r="D14" t="n">
+        <v>0.00914246252706424</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.944</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2299217258111986</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007270763371201129</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.8897961520035941</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.6459168477350031</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.02042568417918781</v>
       </c>
     </row>
     <row r="15">
@@ -5301,16 +6999,25 @@
         <v>0.3305328956363172</v>
       </c>
       <c r="D15" t="n">
+        <v>0.01045236791821492</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9409999999999999</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.235624701591323</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007451107300260814</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.9007608265283343</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>1.018515723147188</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.03220829517838593</v>
       </c>
     </row>
     <row r="16">
@@ -5326,16 +7033,25 @@
         <v>0.3270592649909874</v>
       </c>
       <c r="D16" t="n">
+        <v>0.0103425220723209</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.947</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2240334796408786</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.00708456067798138</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.078700157864513</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.7792421503945148</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.02464180044054143</v>
       </c>
     </row>
     <row r="17">
@@ -5351,16 +7067,25 @@
         <v>0.347997811639998</v>
       </c>
       <c r="D17" t="n">
+        <v>0.01100465705536649</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.953</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.006692607862410587</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.093291948370687</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>1.262865176050767</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.03993530334029947</v>
       </c>
     </row>
   </sheetData>
@@ -5374,7 +7099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5400,22 +7125,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -5432,16 +7172,25 @@
         <v>0.2351416496227631</v>
       </c>
       <c r="D2" t="n">
+        <v>0.007435831855772041</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.986</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1174904251417961</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.003715373467095872</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.944668634186465</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.3828835014937305</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0121078394322067</v>
       </c>
     </row>
     <row r="3">
@@ -5457,16 +7206,25 @@
         <v>0.2339263227050009</v>
       </c>
       <c r="D3" t="n">
+        <v>0.007397399844153637</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.995</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.07053367989832944</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.002230470802319547</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.073803346134812</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.4215071213094356</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01332922553318711</v>
       </c>
     </row>
     <row r="4">
@@ -5482,16 +7240,25 @@
         <v>0.2438754552641463</v>
       </c>
       <c r="D4" t="n">
+        <v>0.007712019040452029</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.985</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1215524578114322</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.003843826218756514</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.896247246808386</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.3756726600768973</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01187981260497202</v>
       </c>
     </row>
     <row r="5">
@@ -5507,16 +7274,25 @@
         <v>0.2435255790551062</v>
       </c>
       <c r="D5" t="n">
+        <v>0.00770095498325531</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.99</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.09949874371066199</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.003146426544510454</v>
+      </c>
+      <c r="H5" t="n">
         <v>2.014917494671072</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.4018146603434259</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01270649523932161</v>
       </c>
     </row>
     <row r="6">
@@ -5532,16 +7308,25 @@
         <v>0.172299272561512</v>
       </c>
       <c r="D6" t="n">
+        <v>0.005448581404845321</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.996</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.564648044071169</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.413055604362907</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.01306196510084169</v>
       </c>
     </row>
     <row r="7">
@@ -5557,16 +7342,25 @@
         <v>0.4004522136025568</v>
       </c>
       <c r="D7" t="n">
+        <v>0.01266341089040341</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.723</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.4475164801434691</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.01415171367714878</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.3903101501374</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.4743939012254998</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01500165235965523</v>
       </c>
     </row>
     <row r="8">
@@ -5582,16 +7376,25 @@
         <v>0.284804828161451</v>
       </c>
       <c r="D8" t="n">
+        <v>0.009006319456030507</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.748</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.434161260363013</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01372938454556503</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.121871230704405</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.5770554601694432</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01824809590372014</v>
       </c>
     </row>
     <row r="9">
@@ -5607,16 +7410,25 @@
         <v>0.3722103844025646</v>
       </c>
       <c r="D9" t="n">
+        <v>0.01177032583478915</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.729</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.4444760960951668</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.014055568291606</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.344949830888132</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.4457361995307325</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.01409541626104391</v>
       </c>
     </row>
     <row r="10">
@@ -5632,16 +7444,25 @@
         <v>0.3086340026471535</v>
       </c>
       <c r="D10" t="n">
+        <v>0.01177032583478915</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.742</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.4375339986789598</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01383603989586616</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.104209053047049</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.4263637654628696</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01348280610628503</v>
       </c>
     </row>
     <row r="11">
@@ -5657,16 +7478,25 @@
         <v>0.227840254891665</v>
       </c>
       <c r="D11" t="n">
+        <v>0.007204941481309816</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.79</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.407308237088326</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.01288021738946979</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.9641551980243344</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.4053381599001661</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.01281791807866054</v>
       </c>
     </row>
     <row r="12">
@@ -5682,16 +7512,25 @@
         <v>0.4132214256413232</v>
       </c>
       <c r="D12" t="n">
+        <v>0.01306720883008486</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.877</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3284372086107175</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01038609647557734</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.886828882511836</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.5514036234280828</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01743691360102524</v>
       </c>
     </row>
     <row r="13">
@@ -5707,16 +7546,25 @@
         <v>0.4019107009231622</v>
       </c>
       <c r="D13" t="n">
+        <v>0.01270953230911931</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.888</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3153664535108324</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.00997276290703835</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.820781160042232</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.8241184215485755</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.02606091273796287</v>
       </c>
     </row>
     <row r="14">
@@ -5732,16 +7580,25 @@
         <v>0.4029190740351095</v>
       </c>
       <c r="D14" t="n">
+        <v>0.01274141986676956</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.948</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.00702111102319284</v>
+      </c>
+      <c r="H14" t="n">
         <v>2.121801056584928</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.6193781428167768</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01958645664226073</v>
       </c>
     </row>
     <row r="15">
@@ -5757,16 +7614,25 @@
         <v>0.3921933573828652</v>
       </c>
       <c r="D15" t="n">
+        <v>0.01240224292518268</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.958</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2005891323078097</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.006343185319695461</v>
+      </c>
+      <c r="H15" t="n">
         <v>2.049833278162409</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.9915593072348252</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.03135585846000722</v>
       </c>
     </row>
     <row r="16">
@@ -5782,16 +7648,25 @@
         <v>0.4208575092243725</v>
       </c>
       <c r="D16" t="n">
+        <v>0.01330868299534341</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.983</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.1292710331048685</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.004087909000944127</v>
+      </c>
+      <c r="H16" t="n">
         <v>2.57238821710675</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.7489136880775106</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.02368273025201822</v>
       </c>
     </row>
     <row r="17">
@@ -5807,16 +7682,25 @@
         <v>0.3963386656342894</v>
       </c>
       <c r="D17" t="n">
+        <v>0.01253332908196258</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.988</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.1088852607105296</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.003443254274665176</v>
+      </c>
+      <c r="H17" t="n">
         <v>2.48651739094134</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>1.232223954932282</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.03896634285006683</v>
       </c>
     </row>
   </sheetData>
@@ -5830,7 +7714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5856,22 +7740,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -5888,16 +7787,25 @@
         <v>0.1792508670793897</v>
       </c>
       <c r="D2" t="n">
+        <v>0.005668410125309655</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.978</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1466833323864712</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.004638534251247909</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.216518090892236</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.4124962066853472</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01304427539305272</v>
       </c>
     </row>
     <row r="3">
@@ -5913,16 +7821,25 @@
         <v>0.1778038211004326</v>
       </c>
       <c r="D3" t="n">
+        <v>0.00562265051358473</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.985</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1215524578114322</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003843826218756514</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.318084941159669</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.4563361618275137</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01443061650074129</v>
       </c>
     </row>
     <row r="4">
@@ -5938,16 +7855,25 @@
         <v>0.1729812868111541</v>
       </c>
       <c r="D4" t="n">
+        <v>0.005470148589100918</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.984</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.125475097130865</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.003967870965643919</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.188283784954065</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.400581721855872</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01266750630096608</v>
       </c>
     </row>
     <row r="5">
@@ -5963,16 +7889,25 @@
         <v>0.1729625322796411</v>
       </c>
       <c r="D5" t="n">
+        <v>0.005469555518740613</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.991</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.09444045743218316</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.002986469487538756</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.281883999411481</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.4310903799416821</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0136322747800308</v>
       </c>
     </row>
     <row r="6">
@@ -5988,16 +7923,25 @@
         <v>0.1443435408652606</v>
       </c>
       <c r="D6" t="n">
+        <v>0.004564543546678152</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.989</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1043024448419116</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.084136844383924</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.4794812509987146</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.01516252848502823</v>
       </c>
     </row>
     <row r="7">
@@ -6013,16 +7957,25 @@
         <v>0.1860991759898796</v>
       </c>
       <c r="D7" t="n">
+        <v>0.0058849726680854</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.923</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.266591447724791</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.008430361795320531</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.9842655980696027</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.5080769133345641</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01606680272685198</v>
       </c>
     </row>
     <row r="8">
@@ -6038,16 +7991,25 @@
         <v>0.2175905123480491</v>
       </c>
       <c r="D8" t="n">
+        <v>0.006880816162628275</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.919</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2728351150420342</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.008627803892068945</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.9587834595547107</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.5535906957688678</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0175060749010696</v>
       </c>
     </row>
     <row r="9">
@@ -6063,16 +8025,25 @@
         <v>0.2902017012986385</v>
       </c>
       <c r="D9" t="n">
+        <v>0.009176983569595414</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.925</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2633913438213185</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.008329165624478841</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.9695855373345771</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.5881591766981066</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.01859922625095449</v>
       </c>
     </row>
     <row r="10">
@@ -6088,16 +8059,25 @@
         <v>0.2153362613973566</v>
       </c>
       <c r="D10" t="n">
+        <v>0.009176983569595414</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.915</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2788816953476869</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.00881901355027874</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.9477936342082899</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.6119025747312892</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01935005842272268</v>
       </c>
     </row>
     <row r="11">
@@ -6113,16 +8093,25 @@
         <v>0.1808943543707619</v>
       </c>
       <c r="D11" t="n">
+        <v>0.005720381756772425</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.9360000000000001</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2447529366524537</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.007739767438366609</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.8364513853463804</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.4310618925716404</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.013631373930292</v>
       </c>
     </row>
     <row r="12">
@@ -6138,16 +8127,25 @@
         <v>0.27870904365402</v>
       </c>
       <c r="D12" t="n">
+        <v>0.008813553824340011</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.884</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.320224920954007</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01012640113762041</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.869759220229836</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.5735499368847752</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01813724152401709</v>
       </c>
     </row>
     <row r="13">
@@ -6163,16 +8161,25 @@
         <v>0.3059201553470633</v>
       </c>
       <c r="D13" t="n">
+        <v>0.009674044730492585</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.897</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3039588787977742</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.009612023720320296</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.8742544308506373</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.8484887720696616</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.02683157088819591</v>
       </c>
     </row>
     <row r="14">
@@ -6188,16 +8195,25 @@
         <v>0.2955071750423611</v>
       </c>
       <c r="D14" t="n">
+        <v>0.009344757380559255</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.9320000000000001</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.251745903640953</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007960904471226871</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.9780712568081915</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.6438713905647726</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0203610011440453</v>
       </c>
     </row>
     <row r="15">
@@ -6213,16 +8229,25 @@
         <v>0.3313344062849764</v>
       </c>
       <c r="D15" t="n">
+        <v>0.01047771391040134</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9360000000000001</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2447529366524537</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007739767438366608</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.9856012717881142</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>1.017193861748352</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.03216649425067218</v>
       </c>
     </row>
     <row r="16">
@@ -6238,16 +8263,25 @@
         <v>0.3274379227515525</v>
       </c>
       <c r="D16" t="n">
+        <v>0.01035449628209174</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.953</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.006692607862410586</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.185735103114402</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.7768558428141998</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.02456633876902622</v>
       </c>
     </row>
     <row r="17">
@@ -6263,16 +8297,25 @@
         <v>0.3429868100485777</v>
       </c>
       <c r="D17" t="n">
+        <v>0.01084619527149033</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.96</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.1959591794226543</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.006196773353931867</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.196168569962073</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>1.261459762283764</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.03989086025471261</v>
       </c>
     </row>
   </sheetData>
@@ -6286,7 +8329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6312,22 +8355,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -6344,16 +8402,25 @@
         <v>0.145844887743226</v>
       </c>
       <c r="D2" t="n">
+        <v>0.004612020303601685</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.991</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.09444045743218316</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.002986469487538756</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.043783947825945</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.4636261224913438</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01466114529824865</v>
       </c>
     </row>
     <row r="3">
@@ -6369,16 +8436,25 @@
         <v>0.1458940726353034</v>
       </c>
       <c r="D3" t="n">
+        <v>0.004613575666456029</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.991</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.09444045743218316</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.002986469487538756</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.044220273850567</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.4641253526952466</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01467693234345948</v>
       </c>
     </row>
     <row r="4">
@@ -6394,16 +8470,25 @@
         <v>0.1476209249290981</v>
       </c>
       <c r="D4" t="n">
+        <v>0.004668183530766802</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.985</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1215524578114322</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.003843826218756514</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.021544459059864</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.4555985279879174</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0144072904706179</v>
       </c>
     </row>
     <row r="5">
@@ -6419,16 +8504,25 @@
         <v>0.145061562518058</v>
       </c>
       <c r="D5" t="n">
+        <v>0.004587249384999737</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.985</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1215524578114322</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.003843826218756514</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.023386563084947</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.4413821046380425</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01395772769094984</v>
       </c>
     </row>
     <row r="6">
@@ -6444,16 +8538,25 @@
         <v>0.2765977249300865</v>
       </c>
       <c r="D6" t="n">
+        <v>0.008746788063998109</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.978</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1466833323864712</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.004638534251247909</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.9443008009044082</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.4982080724226475</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.01575472257537688</v>
       </c>
     </row>
     <row r="7">
@@ -6469,16 +8572,25 @@
         <v>3.209659765457466</v>
       </c>
       <c r="D7" t="n">
+        <v>0.1014983537304743</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.973</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.1620833119108812</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.00512552436341883</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.393283456227315</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>15.76874830885622</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.4986516050591395</v>
       </c>
     </row>
     <row r="8">
@@ -6494,16 +8606,25 @@
         <v>4.429487099893419</v>
       </c>
       <c r="D8" t="n">
+        <v>0.1400726810199698</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.964</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.1862900963551203</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.005891010100144116</v>
+      </c>
+      <c r="H8" t="n">
         <v>4.287067786839825</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>36.57742729514313</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.156679812018642</v>
       </c>
     </row>
     <row r="9">
@@ -6519,16 +8640,25 @@
         <v>6.718191018204002</v>
       </c>
       <c r="D9" t="n">
+        <v>0.2124478537361037</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.957</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2028570925553257</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.006414904519944159</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.864509629425609</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>20.70931601661969</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.6548860739672366</v>
       </c>
     </row>
     <row r="10">
@@ -6544,16 +8674,25 @@
         <v>7.602716076337789</v>
       </c>
       <c r="D10" t="n">
+        <v>0.2404189920480599</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.953</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.006692607862410587</v>
+      </c>
+      <c r="H10" t="n">
         <v>3.570703839972885</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>18.25463204897936</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5772621512308116</v>
       </c>
     </row>
     <row r="11">
@@ -6569,16 +8708,25 @@
         <v>4.430147729689809</v>
       </c>
       <c r="D11" t="n">
+        <v>0.1400935719684375</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.955</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2073041244162788</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006555532015023648</v>
+      </c>
+      <c r="H11" t="n">
         <v>3.892367771973473</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>13.80161725629081</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.4364454592376282</v>
       </c>
     </row>
     <row r="12">
@@ -6594,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
         <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -6605,6 +8753,15 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6619,10 +8776,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
         <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -6630,6 +8787,15 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6644,10 +8810,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -6655,6 +8821,15 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6669,16 +8844,25 @@
         <v>0.01912524635145755</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.997</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.001186757074032965</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.02180017795871042</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0006893821574652507</v>
       </c>
     </row>
     <row r="16">
@@ -6694,10 +8878,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
         <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6705,6 +8889,15 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6719,16 +8912,25 @@
         <v>0.2257715887424289</v>
       </c>
       <c r="D17" t="n">
+        <v>0.007139524513809057</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9429999999999999</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2318426190328259</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007331507348424336</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.157424210916012</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.82409549843536</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.02606018784547465</v>
       </c>
     </row>
     <row r="18">
@@ -6744,16 +8946,25 @@
         <v>0.361418262214672</v>
       </c>
       <c r="D18" t="n">
+        <v>0.01142904896578335</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.2337434491060658</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.007391616873188166</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.169643350436096</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>1.268269284654308</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.04010619625940048</v>
       </c>
     </row>
     <row r="19">
@@ -6769,16 +8980,25 @@
         <v>0.2581547523662976</v>
       </c>
       <c r="D19" t="n">
+        <v>0.00816357006274243</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.95</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2179449471770337</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.006892024376045113</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.328597912968435</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.9462520702096108</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.02992311782511933</v>
       </c>
     </row>
     <row r="20">
@@ -6794,16 +9014,25 @@
         <v>0.4667495795206736</v>
       </c>
       <c r="D20" t="n">
+        <v>0.01475991768211211</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.945</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.22798026230356</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.007209368904418751</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.343504159372281</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>1.483741309168807</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.04692001995453504</v>
       </c>
     </row>
     <row r="21">
@@ -6819,16 +9048,25 @@
         <v>0.2820428454291314</v>
       </c>
       <c r="D21" t="n">
+        <v>0.008918977893108656</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.945</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.22798026230356</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.00720936890441875</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.488511786125573</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>1.048021520361807</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.03314135041215843</v>
       </c>
     </row>
     <row r="22">
@@ -6844,16 +9082,25 @@
         <v>0.6065367031029726</v>
       </c>
       <c r="D22" t="n">
+        <v>0.01918037466294711</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.2374868417407584</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.007509993342207436</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.50559010815965</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>1.655579089649901</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.05235400769841783</v>
       </c>
     </row>
   </sheetData>
@@ -6867,7 +9114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6893,22 +9140,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -6925,16 +9187,25 @@
         <v>0.2210405418715045</v>
       </c>
       <c r="D2" t="n">
+        <v>0.006989915675517719</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.979</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1433840995368733</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.004534203347888138</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.60330643336463</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.4086787397695261</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01292355648958939</v>
       </c>
     </row>
     <row r="3">
@@ -6950,16 +9221,25 @@
         <v>0.2215355851523516</v>
       </c>
       <c r="D3" t="n">
+        <v>0.007005570318596112</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.977</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1499033021650957</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.004740358636221525</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.612146175060181</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.4067170655417088</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01286152290371784</v>
       </c>
     </row>
     <row r="4">
@@ -6975,16 +9255,25 @@
         <v>0.2160558791511684</v>
       </c>
       <c r="D4" t="n">
+        <v>0.006832286799877788</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.976</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1530490117576719</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.004839834707921336</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.564852243250864</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.3991335210196303</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01262171016944723</v>
       </c>
     </row>
     <row r="5">
@@ -7000,16 +9289,25 @@
         <v>0.2162037710609501</v>
       </c>
       <c r="D5" t="n">
+        <v>0.006836963552702013</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.973</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1620833119108812</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.005125524363418829</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.570599351884768</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.3876954174437647</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01226000557532071</v>
       </c>
     </row>
     <row r="6">
@@ -7025,16 +9323,25 @@
         <v>0.2888965493408716</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0091357110408037</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.977</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1499033021650958</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.004740358636221526</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.332850335927132</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.4432048297727526</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.01401536732069105</v>
       </c>
     </row>
     <row r="7">
@@ -7050,16 +9357,25 @@
         <v>6.206994851674958</v>
       </c>
       <c r="D7" t="n">
+        <v>0.1962824115623186</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.982</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.132951118836962</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.004204283529925163</v>
+      </c>
+      <c r="H7" t="n">
         <v>6.15683479261905</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>91.50970416152323</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.893790931586023</v>
       </c>
     </row>
     <row r="8">
@@ -7075,16 +9391,25 @@
         <v>1.466387844936265</v>
       </c>
       <c r="D8" t="n">
+        <v>0.04637125523184405</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.922</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2681715868618448</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.00848033018225116</v>
+      </c>
+      <c r="H8" t="n">
         <v>2.204726499047934</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>5.548937189628699</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.1754728011244034</v>
       </c>
     </row>
     <row r="9">
@@ -7100,16 +9425,25 @@
         <v>0.4328945231015857</v>
       </c>
       <c r="D9" t="n">
+        <v>0.01368932679613389</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.989</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.1043024448419116</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.625103671604304</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>1.661267067569613</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0525338773534882</v>
       </c>
     </row>
     <row r="10">
@@ -7125,16 +9459,25 @@
         <v>4.789045148343833</v>
       </c>
       <c r="D10" t="n">
+        <v>0.1514429048614546</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.949</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2199977272609878</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.00695693898205238</v>
+      </c>
+      <c r="H10" t="n">
         <v>2.187231010788158</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>3.163197892835157</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.1000291003120431</v>
       </c>
     </row>
     <row r="11">
@@ -7150,16 +9493,25 @@
         <v>0.4499045862844421</v>
       </c>
       <c r="D11" t="n">
+        <v>0.01422723222414588</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.96</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.1959591794226543</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006196773353931868</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.727616624627374</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>1.316964914366562</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0416460872792694</v>
       </c>
     </row>
     <row r="12">
@@ -7175,16 +9527,25 @@
         <v>0.2359069549150321</v>
       </c>
       <c r="D12" t="n">
+        <v>0.007460032934061552</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.202</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.4014922166119787</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01269629867323544</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.4220027026983249</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.7347992278578767</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.02323639182963938</v>
       </c>
     </row>
     <row r="13">
@@ -7200,16 +9561,25 @@
         <v>0.1874611080352415</v>
       </c>
       <c r="D13" t="n">
+        <v>0.005928040740902552</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.306</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.4608296865437382</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.0145727142289966</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.4822652473660655</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.6562524833842626</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.02075252567636074</v>
       </c>
     </row>
     <row r="14">
@@ -7225,16 +9595,25 @@
         <v>0.2218602293565594</v>
       </c>
       <c r="D14" t="n">
+        <v>0.007015836469740807</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.239</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.4264727423880687</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.01348625225924534</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.4812812544729066</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.7481058790122331</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.02365718508641013</v>
       </c>
     </row>
     <row r="15">
@@ -7250,16 +9629,25 @@
         <v>0.1886508491827101</v>
       </c>
       <c r="D15" t="n">
+        <v>0.007015836469740807</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.325</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.4683748498798798</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.01481131324359862</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.5118222037003463</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.6603583878418172</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.02088236577576985</v>
       </c>
     </row>
     <row r="16">
@@ -7275,16 +9663,25 @@
         <v>0.166052964986376</v>
       </c>
       <c r="D16" t="n">
+        <v>0.005251055815811388</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.327</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.4691172561311298</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.01483479019062959</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.4536022886436082</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.5728979779135402</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01811662477111626</v>
       </c>
     </row>
     <row r="17">
@@ -7300,16 +9697,25 @@
         <v>0.4372678443084526</v>
       </c>
       <c r="D17" t="n">
+        <v>0.01382762335566605</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.957</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2028570925553257</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.006414904519944159</v>
+      </c>
+      <c r="H17" t="n">
         <v>2.759854174349891</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.7896700323990818</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.02497155902360057</v>
       </c>
     </row>
     <row r="18">
@@ -7325,16 +9731,25 @@
         <v>0.503789117471708</v>
       </c>
       <c r="D18" t="n">
+        <v>0.01593121071616726</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.968</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.176</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.005565608681896348</v>
+      </c>
+      <c r="H18" t="n">
         <v>2.665016085444106</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>1.232434061939563</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.03897298701702052</v>
       </c>
     </row>
     <row r="19">
@@ -7350,16 +9765,25 @@
         <v>0.4145563922145639</v>
       </c>
       <c r="D19" t="n">
+        <v>0.01310942417980116</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.986</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.1174904251417961</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.003715373467095872</v>
+      </c>
+      <c r="H19" t="n">
         <v>3.167746276553811</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.9088069719057947</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.02873899984662967</v>
       </c>
     </row>
     <row r="20">
@@ -7375,16 +9799,25 @@
         <v>0.5396846519825917</v>
       </c>
       <c r="D20" t="n">
+        <v>0.01706632718500296</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.992</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.08908422980528033</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.002817090697865441</v>
+      </c>
+      <c r="H20" t="n">
         <v>3.05810355545815</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>1.444334655953379</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.04567387216328352</v>
       </c>
     </row>
     <row r="21">
@@ -7400,16 +9833,25 @@
         <v>0.4355753926495774</v>
       </c>
       <c r="D21" t="n">
+        <v>0.01377410333494829</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.99</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.09949874371066199</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.003146426544510454</v>
+      </c>
+      <c r="H21" t="n">
         <v>3.54960071501701</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>1.006015874987402</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.03181301527247406</v>
       </c>
     </row>
     <row r="22">
@@ -7425,16 +9867,25 @@
         <v>0.659847291391887</v>
       </c>
       <c r="D22" t="n">
+        <v>0.02086620348691179</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.996</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H22" t="n">
         <v>3.428178786403703</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>1.61141412792942</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.05095738898030915</v>
       </c>
     </row>
   </sheetData>
@@ -7448,7 +9899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7474,22 +9925,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -7506,16 +9972,25 @@
         <v>0.1568954440968928</v>
       </c>
       <c r="D2" t="n">
+        <v>0.00496146957849801</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.985</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1215524578114322</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.003843826218756514</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.118411489728595</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.4414130928374767</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01395870762385783</v>
       </c>
     </row>
     <row r="3">
@@ -7531,16 +10006,25 @@
         <v>0.1568427734594745</v>
       </c>
       <c r="D3" t="n">
+        <v>0.004959803986697461</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.985</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1215524578114322</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003843826218756514</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.118443451625735</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.440644925807116</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01393441604946396</v>
       </c>
     </row>
     <row r="4">
@@ -7556,16 +10040,25 @@
         <v>0.1633901439479867</v>
       </c>
       <c r="D4" t="n">
+        <v>0.005166850020984142</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.98</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.14</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.004427188724235731</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.093568031299641</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.4324671801360528</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01367581302500254</v>
       </c>
     </row>
     <row r="5">
@@ -7581,16 +10074,25 @@
         <v>0.1601082180569187</v>
       </c>
       <c r="D5" t="n">
+        <v>0.005063066411707614</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.984</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.125475097130865</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.003967870965643919</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.094101432598406</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.4197351210157371</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01327318996376137</v>
       </c>
     </row>
     <row r="6">
@@ -7606,16 +10108,25 @@
         <v>0.2827536632986287</v>
       </c>
       <c r="D6" t="n">
+        <v>0.008941455927800254</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.971</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1678064361101802</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.005306505441436954</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.002668666969801</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.4880836043677155</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.01543455878386489</v>
       </c>
     </row>
     <row r="7">
@@ -7631,16 +10142,25 @@
         <v>6.637758265984804</v>
       </c>
       <c r="D7" t="n">
+        <v>0.2099043467812174</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.958</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2005891323078097</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.006343185319695461</v>
+      </c>
+      <c r="H7" t="n">
         <v>33.07426871764037</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>689.9539913845351</v>
+      </c>
+      <c r="J7" t="n">
+        <v>21.81826093499322</v>
       </c>
     </row>
     <row r="8">
@@ -7656,16 +10176,25 @@
         <v>6.055132709978975</v>
       </c>
       <c r="D8" t="n">
+        <v>0.1914801089812133</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.9379999999999999</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2411555514600482</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.007626008130076966</v>
+      </c>
+      <c r="H8" t="n">
         <v>4.104339551893077</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>52.00732289521927</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.644615953567154</v>
       </c>
     </row>
     <row r="9">
@@ -7681,16 +10210,25 @@
         <v>0.6364871291475463</v>
       </c>
       <c r="D9" t="n">
+        <v>0.02012749029487992</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.965</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.1837797594948911</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.005811626278418117</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.628154112563669</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>15.40521973812923</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.4871558222787105</v>
       </c>
     </row>
     <row r="10">
@@ -7706,16 +10244,25 @@
         <v>2.00716939254018</v>
       </c>
       <c r="D10" t="n">
+        <v>0.06347226930203548</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.959</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.198290191386261</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.006270486424512855</v>
+      </c>
+      <c r="H10" t="n">
         <v>2.263253913077621</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>3.352628429100713</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.1060194198419059</v>
       </c>
     </row>
     <row r="11">
@@ -7731,16 +10278,25 @@
         <v>0.4911251729430282</v>
       </c>
       <c r="D11" t="n">
+        <v>0.0155307416274407</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.948</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.007021111023192841</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.614497493983418</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>1.319712599792552</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0417329767216672</v>
       </c>
     </row>
     <row r="12">
@@ -7756,16 +10312,25 @@
         <v>0.08718401726876344</v>
       </c>
       <c r="D12" t="n">
+        <v>0.002757000701327449</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.135</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3417235724968355</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01080624819259673</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.1300678802936142</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.3194725928970933</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01010261043554545</v>
       </c>
     </row>
     <row r="13">
@@ -7781,16 +10346,25 @@
         <v>0.08234742318499431</v>
       </c>
       <c r="D13" t="n">
+        <v>0.002604054167103392</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.169</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3747519179403889</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01185069618208146</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.1628644107346905</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.3534436929145303</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01117687094231032</v>
       </c>
     </row>
     <row r="14">
@@ -7806,16 +10380,25 @@
         <v>0.09210664976123362</v>
       </c>
       <c r="D14" t="n">
+        <v>0.002912668008929023</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.139</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.3459465276599839</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.01093978976031989</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.1401332211372186</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.3185394220755599</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01007310098312489</v>
       </c>
     </row>
     <row r="15">
@@ -7831,16 +10414,25 @@
         <v>0.08388703439514598</v>
       </c>
       <c r="D15" t="n">
+        <v>0.002912668008929023</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.181</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.3850181813888793</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.0121753439376471</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.1701786841710187</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.3529882039782283</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0111624671174331</v>
       </c>
     </row>
     <row r="16">
@@ -7856,16 +10448,25 @@
         <v>0.07634909720799574</v>
       </c>
       <c r="D16" t="n">
+        <v>0.002414370444748689</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.171</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.3765089640367145</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.01190625885826442</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.1436533399696214</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.2980667840150911</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.009425699323291559</v>
       </c>
     </row>
     <row r="17">
@@ -7881,16 +10482,25 @@
         <v>0.2389891929942273</v>
       </c>
       <c r="D17" t="n">
+        <v>0.007557501860273144</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.949</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2199977272609878</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.006956938982052379</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.272202476257183</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.8213907169568251</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.02597465514502256</v>
       </c>
     </row>
     <row r="18">
@@ -7906,16 +10516,25 @@
         <v>0.3739403053293884</v>
       </c>
       <c r="D18" t="n">
+        <v>0.01182503073779668</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.95</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.2179449471770337</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.006892024376045113</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.279998565618823</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>1.266329284547867</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.04004484806942726</v>
       </c>
     </row>
     <row r="19">
@@ -7931,16 +10550,25 @@
         <v>0.2670575680894324</v>
       </c>
       <c r="D19" t="n">
+        <v>0.00844510181548108</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.961</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.1935949379503503</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.006122009474020765</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.460309717098898</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.9431737743200926</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.02982577356189122</v>
       </c>
     </row>
     <row r="20">
@@ -7956,16 +10584,25 @@
         <v>0.4681763943757196</v>
       </c>
       <c r="D20" t="n">
+        <v>0.01480503752952519</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.957</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2028570925553257</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.006414904519944159</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.470035727425232</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>1.481686098332358</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.04685502848138465</v>
       </c>
     </row>
     <row r="21">
@@ -7981,16 +10618,25 @@
         <v>0.2911084413840198</v>
       </c>
       <c r="D21" t="n">
+        <v>0.009205657208751218</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.962</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.19119623427254</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.006046155803483731</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.636132615405153</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>1.044619522130367</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.03303376978208628</v>
       </c>
     </row>
     <row r="22">
@@ -8006,16 +10652,25 @@
         <v>0.6053448876111758</v>
       </c>
       <c r="D22" t="n">
+        <v>0.01914268614789959</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.96</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.1959591794226543</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.006196773353931867</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.647484184625847</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>1.653301002445276</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.05228196825566685</v>
       </c>
     </row>
   </sheetData>
